--- a/stash name tests.xlsx
+++ b/stash name tests.xlsx
@@ -197,9 +197,6 @@
     <t>warlord</t>
   </si>
   <si>
-    <t>hunder</t>
-  </si>
-  <si>
     <t>crusader</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>INCU</t>
+  </si>
+  <si>
+    <t>hunter</t>
   </si>
 </sst>
 </file>
@@ -274,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -360,23 +360,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -675,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,16 +686,16 @@
         <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>75</v>
-      </c>
-      <c r="G1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,7 +1485,7 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1509,7 +1499,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1523,7 +1513,7 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -1537,7 +1527,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -1551,7 +1541,7 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36">
         <v>5</v>
@@ -1565,16 +1555,16 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37">
         <v>6</v>
       </c>
       <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
         <v>59</v>
-      </c>
-      <c r="G37" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1585,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38">
         <v>7</v>
@@ -1599,7 +1589,7 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39">
         <v>8</v>
@@ -1613,7 +1603,7 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>9</v>
@@ -1627,7 +1617,7 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -1641,7 +1631,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D42">
         <v>11</v>
@@ -1655,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43">
         <v>12</v>
@@ -1670,29 +1660,29 @@
         <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J43" t="s">
         <v>56</v>
       </c>
       <c r="K43" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
         <v>79</v>
-      </c>
-      <c r="B45" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">

--- a/stash name tests.xlsx
+++ b/stash name tests.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>brown</t>
   </si>
@@ -128,12 +129,6 @@
     <t>Veiled</t>
   </si>
   <si>
-    <t>jewels</t>
-  </si>
-  <si>
-    <t>fossils</t>
-  </si>
-  <si>
     <t>elder</t>
   </si>
   <si>
@@ -143,9 +138,6 @@
     <t>MISC</t>
   </si>
   <si>
-    <t>Gems</t>
-  </si>
-  <si>
     <t>CURR</t>
   </si>
   <si>
@@ -179,12 +171,6 @@
     <t>4 CAPS 1-7</t>
   </si>
   <si>
-    <t>influenced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oil, tane, </t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -200,51 +186,9 @@
     <t>crusader</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>vaal</t>
-  </si>
-  <si>
     <t>4 CAPS 8-12</t>
   </si>
   <si>
-    <t>SPLIT</t>
-  </si>
-  <si>
-    <t>JEWEL</t>
-  </si>
-  <si>
-    <t>UNIQE</t>
-  </si>
-  <si>
-    <t>ESSNC</t>
-  </si>
-  <si>
-    <t>MAPS1</t>
-  </si>
-  <si>
-    <t>MISC1</t>
-  </si>
-  <si>
-    <t>CARDS</t>
-  </si>
-  <si>
-    <t>GEMS1</t>
-  </si>
-  <si>
-    <t>CURCY</t>
-  </si>
-  <si>
-    <t>VEILD</t>
-  </si>
-  <si>
-    <t>FOSSL</t>
-  </si>
-  <si>
-    <t>INFLD</t>
-  </si>
-  <si>
     <t>5 CAPS 1-7</t>
   </si>
   <si>
@@ -267,6 +211,69 @@
   </si>
   <si>
     <t>hunter</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>vaal gem</t>
+  </si>
+  <si>
+    <t>quality gem</t>
+  </si>
+  <si>
+    <t>scarab</t>
+  </si>
+  <si>
+    <t>prophecy to your</t>
+  </si>
+  <si>
+    <t>PROP</t>
+  </si>
+  <si>
+    <t>sacrifice at dawn</t>
+  </si>
+  <si>
+    <t>sacrifice at dusk</t>
+  </si>
+  <si>
+    <t>sacrifice at noon</t>
+  </si>
+  <si>
+    <t>sacrifice at midnight</t>
+  </si>
+  <si>
+    <t>divine vessel</t>
+  </si>
+  <si>
+    <t>tane's</t>
+  </si>
+  <si>
+    <t>stacked deck</t>
+  </si>
+  <si>
+    <t>eye jewel</t>
+  </si>
+  <si>
+    <t>cobalt jewel</t>
+  </si>
+  <si>
+    <t>viridian jewel</t>
+  </si>
+  <si>
+    <t>crimson jewel</t>
+  </si>
+  <si>
+    <t>delirium orb</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>GEAR</t>
+  </si>
+  <si>
+    <t>talisman</t>
   </si>
 </sst>
 </file>
@@ -663,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +690,19 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1476,300 +1483,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-      <c r="G37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40">
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>12</v>
       </c>
-      <c r="F43" t="s">
-        <v>37</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>13</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B57">
+      <c r="B41">
         <v>1</v>
       </c>
     </row>
@@ -1785,4 +1583,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stash name tests.xlsx
+++ b/stash name tests.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>brown</t>
   </si>
@@ -274,6 +275,9 @@
   </si>
   <si>
     <t>talisman</t>
+  </si>
+  <si>
+    <t>offering to the goddess</t>
   </si>
 </sst>
 </file>
@@ -673,7 +677,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1587,9 +1591,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1600,68 +1606,72 @@
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1669,7 +1679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1677,7 +1687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -1694,7 +1704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -1702,7 +1712,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1710,7 +1720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1718,7 +1728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1729,7 +1739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -1782,6 +1792,74 @@
       </c>
       <c r="B17" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
